--- a/biology/Microbiologie/Solobacterium/Solobacterium.xlsx
+++ b/biology/Microbiologie/Solobacterium/Solobacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solobacterium moorei
 Solobacterium est un genre de bactéries à Gram-positif de la famille des Erysipelotrichaceae. Ce genre n'est représenté que par son espèce type, Solobacterium moorei.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Solobacterium et l'espèce Solobacterium moorei ont été décrits en 2000 par les microbiologistes japonais Akiko Kageyama (d) et Yoshimi Benno (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Solobacterium et l'espèce Solobacterium moorei ont été décrits en 2000 par les microbiologistes japonais Akiko Kageyama (d) et Yoshimi Benno (d),.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, moorei, a été donnée en l'honneur du microbiologiste américain Walter Edward C. Moore (d) (1927-1996)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, moorei, a été donnée en l'honneur du microbiologiste américain Walter Edward C. Moore (d) (1927-1996).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Akiko Kageyama et Yoshimi Benno, « Phylogenic and phenotypic characterization of some Eubacterium-like isolates from human feces: description of Solobacterium moorei Gen. Nov., Sp. Nov. », Microbiology and Immunology, Wiley-Blackwell et Wiley, vol. 44, no 4,‎ 1er janvier 2000, p. 223-227 (ISSN 0385-5600 et 1348-0421, PMID 10832964, DOI 10.1111/J.1348-0421.2000.TB02487.X, lire en ligne)</t>
         </is>
